--- a/config_aomi/fish3d_gun_barrel_config.xlsx
+++ b/config_aomi/fish3d_gun_barrel_config.xlsx
@@ -249,10 +249,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>小钢炮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>雷霆幻影</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -530,95 +526,99 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>圣光  II</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  III</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  IV</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  V</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_11</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_14</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_12</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_15</t>
+  </si>
+  <si>
+    <t>GunPrefab17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunPrefab18</t>
+  </si>
+  <si>
+    <t>GunPrefab19</t>
+  </si>
+  <si>
+    <t>GunPrefab20</t>
+  </si>
+  <si>
+    <t>GunPrefab21</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_13</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_16</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_17</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_13</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_14</t>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>圣光  I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>圣光  II</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光  III</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光  IV</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光  V</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_11</t>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_14</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_12</t>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_15</t>
-  </si>
-  <si>
-    <t>GunPrefab17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GunPrefab18</t>
-  </si>
-  <si>
-    <t>GunPrefab19</t>
-  </si>
-  <si>
-    <t>GunPrefab20</t>
-  </si>
-  <si>
-    <t>GunPrefab21</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_16</t>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_17</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_13</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_14</t>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
+    <t>小钢炮</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="14"/>
     </row>
@@ -1214,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" s="14"/>
     </row>
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="14"/>
     </row>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="14"/>
     </row>
@@ -1295,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J7" s="14"/>
     </row>
@@ -1322,7 +1322,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -1349,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="20">
         <v>2</v>
@@ -1424,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="20">
         <v>2</v>
@@ -1449,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
@@ -1511,10 +1511,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -1578,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -1610,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -1642,13 +1642,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -1671,16 +1671,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -1708,16 +1708,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -1745,16 +1745,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1777,16 +1777,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1809,16 +1809,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -1841,16 +1841,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -1873,16 +1873,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" s="21">
         <v>15</v>
@@ -1905,16 +1905,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H13" s="21">
         <v>15</v>
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H14" s="21">
         <v>15</v>
@@ -1969,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="21">
         <v>15</v>
@@ -2001,16 +2001,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="21">
         <v>15</v>
@@ -3985,7 +3985,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>21</v>
@@ -4000,10 +4000,10 @@
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4011,16 +4011,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4028,14 +4028,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4043,14 +4043,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4058,16 +4058,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4216,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4244,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4272,7 +4272,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -4300,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
